--- a/notebooks/SC5D/input/SC5D_individuals.xlsx
+++ b/notebooks/SC5D/input/SC5D_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SC5D/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B1C8B-C210-344F-B381-4D094687A9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A1EAE-0085-F341-BEC9-6393FE184C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34980" yWindow="3980" windowWidth="27640" windowHeight="16940" xr2:uid="{68482B92-3832-DE48-ADDE-86A98FBF12B2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{68482B92-3832-DE48-ADDE-86A98FBF12B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="130">
   <si>
     <t>PMID</t>
   </si>
@@ -408,13 +408,31 @@
   </si>
   <si>
     <t>appears identical to PMID:12189593</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HGNC:10547</t>
+  </si>
+  <si>
+    <t>SC5D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +441,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -438,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -446,14 +472,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,9 +517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,7 +557,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -619,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -761,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,15 +813,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9013A20-8E98-1849-AB28-4F03C62A2256}">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,151 +840,157 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -949,157 +999,163 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>113</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>115</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1116,34 +1172,34 @@
         <v>63</v>
       </c>
       <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -1161,25 +1217,25 @@
         <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s">
         <v>55</v>
@@ -1188,7 +1244,7 @@
         <v>19</v>
       </c>
       <c r="AE3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s">
         <v>19</v>
@@ -1253,8 +1309,14 @@
       <c r="AZ3" t="s">
         <v>19</v>
       </c>
+      <c r="BA3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1274,37 +1336,37 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
       <c r="P4" t="s">
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
         <v>19</v>
@@ -1316,31 +1378,31 @@
         <v>19</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s">
         <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Z4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s">
         <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AD4" t="s">
         <v>55</v>
@@ -1352,10 +1414,10 @@
         <v>55</v>
       </c>
       <c r="AG4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AH4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="s">
         <v>19</v>
@@ -1411,8 +1473,14 @@
       <c r="AZ4" t="s">
         <v>19</v>
       </c>
+      <c r="BA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1432,73 +1500,73 @@
         <v>63</v>
       </c>
       <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" t="s">
         <v>78</v>
       </c>
-      <c r="S5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s">
         <v>55</v>
       </c>
       <c r="AB5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AD5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s">
         <v>44</v>
@@ -1555,15 +1623,21 @@
         <v>44</v>
       </c>
       <c r="AW5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AY5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AZ5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB5" t="s">
         <v>19</v>
       </c>
     </row>
